--- a/结果/SVM分类/样本熵/SVM_AE_sampen.xlsx
+++ b/结果/SVM分类/样本熵/SVM_AE_sampen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D924CDDB-A78C-4C2B-9ED4-88D5D8314E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81138D39-C504-48BA-AA80-758BC544A276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10956" yWindow="600" windowWidth="19668" windowHeight="11148" activeTab="4" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_sampen" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="AE_sampen_d2" sheetId="3" r:id="rId3"/>
     <sheet name="AE_sampen_d3" sheetId="4" r:id="rId4"/>
     <sheet name="AE_sampen_d4" sheetId="5" r:id="rId5"/>
+    <sheet name="AE_sampen_multi_attri" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,6 +33,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1477,7 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7886D86-32D9-4A4E-9B5B-2F282A844589}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1756,4 +1774,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C5430A-8F0A-42A5-9125-DF30366EFDDF}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>98.125</v>
+      </c>
+      <c r="B2">
+        <v>96.590900000000005</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99.375</v>
+      </c>
+      <c r="B4">
+        <v>98.7654</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>98.125</v>
+      </c>
+      <c r="B8">
+        <v>96.202500000000001</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99.375</v>
+      </c>
+      <c r="B15">
+        <v>98.8095</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>99.375</v>
+      </c>
+      <c r="B17">
+        <v>98.648600000000002</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99.375</v>
+      </c>
+      <c r="B19">
+        <v>98.780500000000004</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>98.125</v>
+      </c>
+      <c r="B21">
+        <v>95.8904</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>99.375</v>
+      </c>
+      <c r="B23">
+        <v>98.8506</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>99.375</v>
+      </c>
+      <c r="B28">
+        <v>98.684200000000004</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>99.375</v>
+      </c>
+      <c r="B30">
+        <v>98.888900000000007</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>98.125</v>
+      </c>
+      <c r="B32">
+        <v>95.8904</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>98.75</v>
+      </c>
+      <c r="B36">
+        <v>97.590400000000002</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.125</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.23948666666665</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/结果/SVM分类/样本熵/SVM_AE_sampen.xlsx
+++ b/结果/SVM分类/样本熵/SVM_AE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81138D39-C504-48BA-AA80-758BC544A276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E905771F-DEAA-4802-B722-E3089CEB3E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
+    <workbookView xWindow="3060" yWindow="588" windowWidth="21276" windowHeight="12360" firstSheet="1" activeTab="5" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_sampen" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3601BC-C60D-4F4B-BF45-EAF775CAD05A}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -686,6 +686,20 @@
       </c>
       <c r="K21">
         <v>0.97468399999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.95916666666666672</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.94050546666666657</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.97843346666666653</v>
       </c>
     </row>
   </sheetData>
@@ -697,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02DC9BF-1491-4C6F-8EE3-562EAA7B170F}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -957,6 +971,20 @@
       </c>
       <c r="K21">
         <v>0.97619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.95666666666666678</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.93819113333333326</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.97509820000000003</v>
       </c>
     </row>
   </sheetData>
@@ -967,10 +995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E28BCD-F030-4140-B470-1CC0430AEE70}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1255,20 @@
       </c>
       <c r="K21">
         <v>0.92857100000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.86412066666666665</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.92921753333333312</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB79E04-F2C1-4A9F-93D4-472B2D2F9CEF}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1483,6 +1525,20 @@
       </c>
       <c r="K21">
         <v>0.85897400000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.70419019999999988</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.87834206666666659</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7886D86-32D9-4A4E-9B5B-2F282A844589}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1780,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C5430A-8F0A-42A5-9125-DF30366EFDDF}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
